--- a/output_test.xlsx
+++ b/output_test.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ritas\PycharmProjects\create_estimate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1A4F36-9876-4826-97D4-8495A33DEFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AB9A06-33C7-4F8A-86C2-10691245978E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="1548" windowWidth="23484" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7524" yWindow="1308" windowWidth="31188" windowHeight="14904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
-    <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,17 +409,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45F07F2-493D-48F3-9F74-1FF34E9C32B2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>